--- a/data/trans_orig/P14A33-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6040E7-564F-400A-9746-F2ED0B765AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F806C36-C8C9-46C3-8F66-07661EFDD6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B85BC3E2-95CC-40DE-BCF0-6E0F26E5FEC9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD35AA1F-64EF-4ACC-A41F-44182486F757}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="57">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -135,7 +135,7 @@
     <t>34,28%</t>
   </si>
   <si>
-    <t>84,13%</t>
+    <t>83,94%</t>
   </si>
   <si>
     <t>65,65%</t>
@@ -147,49 +147,43 @@
     <t>65,72%</t>
   </si>
   <si>
-    <t>15,87%</t>
+    <t>16,06%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>80,35%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>57,28%</t>
+    <t>56,23%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>42,72%</t>
+    <t>43,77%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -625,7 +619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5C6BEA-5CD0-4963-82AF-5BF92B8F8D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695F297-3348-44EE-86BC-826292641FB9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1557,10 +1551,10 @@
         <v>3832</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -1572,10 +1566,10 @@
         <v>7185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -1587,13 +1581,13 @@
         <v>11016</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1643,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71E954-30E6-4247-8FFA-B6251ABBB3A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA913B5-61A6-4710-97A8-4ED407A0FBAA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1687,7 +1681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2536,7 +2530,7 @@
         <v>1020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
@@ -2551,13 +2545,13 @@
         <v>1020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,7 +2581,7 @@
         <v>1020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -2602,10 +2596,10 @@
         <v>3894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -2664,7 +2658,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A33-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F806C36-C8C9-46C3-8F66-07661EFDD6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4612485E-2863-406E-9432-71D49FAD0E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD35AA1F-64EF-4ACC-A41F-44182486F757}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5ECAB41-BDFF-4345-BAEA-08EFF9DF90C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="59">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,7 +96,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -105,10 +105,10 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -135,7 +135,7 @@
     <t>34,28%</t>
   </si>
   <si>
-    <t>83,94%</t>
+    <t>83,97%</t>
   </si>
   <si>
     <t>65,65%</t>
@@ -147,49 +147,55 @@
     <t>65,72%</t>
   </si>
   <si>
-    <t>16,06%</t>
+    <t>16,03%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>43,77%</t>
+    <t>44,31%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por esterilidad en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población que recibe medicación o terapia por esterilidad en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>49,99%</t>
@@ -619,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695F297-3348-44EE-86BC-826292641FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500C4E75-4CF9-4DDC-B8B0-3D1264BCD638}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,10 +1557,10 @@
         <v>3832</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -1566,10 +1572,10 @@
         <v>7185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -1581,13 +1587,13 @@
         <v>11016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,7 +1649,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA913B5-61A6-4710-97A8-4ED407A0FBAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B40250-23B3-453E-B8F7-10D526D6BC1C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1681,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2530,7 +2536,7 @@
         <v>1020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
@@ -2545,13 +2551,13 @@
         <v>1020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,7 +2587,7 @@
         <v>1020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -2596,10 +2602,10 @@
         <v>3894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
